--- a/docs/horarioDAW2.xlsx
+++ b/docs/horarioDAW2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\DAW2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA0EE6-7781-4757-B937-4953E66D5D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9643B78A-DB74-46BF-AE87-C994241CD86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{DAA9753D-6CC3-408A-9180-DC50533A0BF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA9753D-6CC3-408A-9180-DC50533A0BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -271,17 +277,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +312,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +634,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,8 +668,8 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
@@ -679,8 +688,8 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -740,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>16</v>
@@ -760,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
